--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.105724</v>
+        <v>7.533107333333334</v>
       </c>
       <c r="H2">
-        <v>30.317172</v>
+        <v>22.599322</v>
       </c>
       <c r="I2">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="J2">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.202916333333333</v>
+        <v>2.539707</v>
       </c>
       <c r="N2">
-        <v>3.608749</v>
+        <v>7.619121</v>
       </c>
       <c r="O2">
-        <v>0.02173550655091635</v>
+        <v>0.04480768326120512</v>
       </c>
       <c r="P2">
-        <v>0.02173550655091635</v>
+        <v>0.04480768326120513</v>
       </c>
       <c r="Q2">
-        <v>12.15634045975867</v>
+        <v>19.131885426218</v>
       </c>
       <c r="R2">
-        <v>109.407064137828</v>
+        <v>172.186968835962</v>
       </c>
       <c r="S2">
-        <v>0.01196507858750683</v>
+        <v>0.0213833547498567</v>
       </c>
       <c r="T2">
-        <v>0.01196507858750683</v>
+        <v>0.02138335474985671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.105724</v>
+        <v>7.533107333333334</v>
       </c>
       <c r="H3">
-        <v>30.317172</v>
+        <v>22.599322</v>
       </c>
       <c r="I3">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="J3">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>61.589341</v>
       </c>
       <c r="O3">
-        <v>0.3709527941045833</v>
+        <v>0.3622039450212636</v>
       </c>
       <c r="P3">
-        <v>0.3709527941045833</v>
+        <v>0.3622039450212636</v>
       </c>
       <c r="Q3">
-        <v>207.4682938292947</v>
+        <v>154.6530387807558</v>
       </c>
       <c r="R3">
-        <v>1867.214644463652</v>
+        <v>1391.877349026802</v>
       </c>
       <c r="S3">
-        <v>0.2042040898986758</v>
+        <v>0.1728528431839965</v>
       </c>
       <c r="T3">
-        <v>0.2042040898986758</v>
+        <v>0.1728528431839965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.105724</v>
+        <v>7.533107333333334</v>
       </c>
       <c r="H4">
-        <v>30.317172</v>
+        <v>22.599322</v>
       </c>
       <c r="I4">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="J4">
-        <v>0.5504853801993582</v>
+        <v>0.4772251808959424</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>100.832041</v>
       </c>
       <c r="O4">
-        <v>0.6073116993445002</v>
+        <v>0.5929883717175313</v>
       </c>
       <c r="P4">
-        <v>0.6073116993445002</v>
+        <v>0.5929883717175314</v>
       </c>
       <c r="Q4">
-        <v>339.6602589008947</v>
+        <v>253.1928624973558</v>
       </c>
       <c r="R4">
-        <v>3056.942330108052</v>
+        <v>2278.735762476202</v>
       </c>
       <c r="S4">
-        <v>0.3343162117131755</v>
+        <v>0.2829889829620892</v>
       </c>
       <c r="T4">
-        <v>0.3343162117131755</v>
+        <v>0.2829889829620892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.009377999999999</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H5">
         <v>15.028134</v>
       </c>
       <c r="I5">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="J5">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.202916333333333</v>
+        <v>2.539707</v>
       </c>
       <c r="N5">
-        <v>3.608749</v>
+        <v>7.619121</v>
       </c>
       <c r="O5">
-        <v>0.02173550655091635</v>
+        <v>0.04480768326120512</v>
       </c>
       <c r="P5">
-        <v>0.02173550655091635</v>
+        <v>0.04480768326120513</v>
       </c>
       <c r="Q5">
-        <v>6.025862616040667</v>
+        <v>12.722352372246</v>
       </c>
       <c r="R5">
-        <v>54.232763544366</v>
+        <v>114.501171350214</v>
       </c>
       <c r="S5">
-        <v>0.00593105466214274</v>
+        <v>0.01421953811492146</v>
       </c>
       <c r="T5">
-        <v>0.005931054662142741</v>
+        <v>0.01421953811492146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.009377999999999</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H6">
         <v>15.028134</v>
       </c>
       <c r="I6">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="J6">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>61.589341</v>
       </c>
       <c r="O6">
-        <v>0.3709527941045833</v>
+        <v>0.3622039450212636</v>
       </c>
       <c r="P6">
-        <v>0.3709527941045833</v>
+        <v>0.3622039450212636</v>
       </c>
       <c r="Q6">
         <v>102.8414299466327</v>
       </c>
       <c r="R6">
-        <v>925.5728695196939</v>
+        <v>925.5728695196941</v>
       </c>
       <c r="S6">
-        <v>0.1012233735503214</v>
+        <v>0.1149439655601211</v>
       </c>
       <c r="T6">
-        <v>0.1012233735503215</v>
+        <v>0.114943965560121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.009377999999999</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H7">
         <v>15.028134</v>
       </c>
       <c r="I7">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="J7">
-        <v>0.2728740021884924</v>
+        <v>0.3173459790819593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>100.832041</v>
       </c>
       <c r="O7">
-        <v>0.6073116993445002</v>
+        <v>0.5929883717175313</v>
       </c>
       <c r="P7">
-        <v>0.6073116993445002</v>
+        <v>0.5929883717175314</v>
       </c>
       <c r="Q7">
-        <v>168.3686026268326</v>
+        <v>168.3686026268327</v>
       </c>
       <c r="R7">
         <v>1515.317423641494</v>
       </c>
       <c r="S7">
-        <v>0.1657195739760282</v>
+        <v>0.1881824754069168</v>
       </c>
       <c r="T7">
-        <v>0.1657195739760282</v>
+        <v>0.1881824754069168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>9.728222000000001</v>
       </c>
       <c r="I8">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="J8">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.202916333333333</v>
+        <v>2.539707</v>
       </c>
       <c r="N8">
-        <v>3.608749</v>
+        <v>7.619121</v>
       </c>
       <c r="O8">
-        <v>0.02173550655091635</v>
+        <v>0.04480768326120512</v>
       </c>
       <c r="P8">
-        <v>0.02173550655091635</v>
+        <v>0.04480768326120513</v>
       </c>
       <c r="Q8">
-        <v>3.900745712697556</v>
+        <v>8.235611170318</v>
       </c>
       <c r="R8">
-        <v>35.106711414278</v>
+        <v>74.120500532862</v>
       </c>
       <c r="S8">
-        <v>0.003839373301266783</v>
+        <v>0.009204790396426958</v>
       </c>
       <c r="T8">
-        <v>0.003839373301266783</v>
+        <v>0.00920479039642696</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>9.728222000000001</v>
       </c>
       <c r="I9">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="J9">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>61.589341</v>
       </c>
       <c r="O9">
-        <v>0.3709527941045833</v>
+        <v>0.3622039450212636</v>
       </c>
       <c r="P9">
-        <v>0.3709527941045833</v>
+        <v>0.3622039450212636</v>
       </c>
       <c r="Q9">
         <v>66.57275356463356</v>
@@ -1004,10 +1004,10 @@
         <v>599.1547820817021</v>
       </c>
       <c r="S9">
-        <v>0.06552533065558608</v>
+        <v>0.07440713627714604</v>
       </c>
       <c r="T9">
-        <v>0.06552533065558608</v>
+        <v>0.07440713627714604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>9.728222000000001</v>
       </c>
       <c r="I10">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="J10">
-        <v>0.1766406176121494</v>
+        <v>0.2054288400220983</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>100.832041</v>
       </c>
       <c r="O10">
-        <v>0.6073116993445002</v>
+        <v>0.5929883717175313</v>
       </c>
       <c r="P10">
-        <v>0.6073116993445002</v>
+        <v>0.5929883717175314</v>
       </c>
       <c r="Q10">
         <v>108.9907199512336</v>
@@ -1066,10 +1066,10 @@
         <v>980.9164795611021</v>
       </c>
       <c r="S10">
-        <v>0.1072759136552965</v>
+        <v>0.1218169133485253</v>
       </c>
       <c r="T10">
-        <v>0.1072759136552965</v>
+        <v>0.1218169133485253</v>
       </c>
     </row>
   </sheetData>
